--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Barbour/Thomas_Barbour.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Barbour/Thomas_Barbour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Barbour est un zoologiste américain, né le 19 août 1884 Martha's Vineyard dans le Massachusetts et mort le 8 janvier 1946 à Boston.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, dirigeant plusieurs sociétés, était un homme fortuné. C’est durant un séjour de convalescence en Floride et aux Bahamas, où il se remettait d’une fièvre typhoïde, que le jeune Barbour se prend d’intérêt pour les reptiles et les tropiques. Sa famille s’installe à New York et il commence une collection faite des dépouilles qu’il peut récupérer au zoo de la ville. Il fait ses études à l'université Harvard et offre sa collection au Museum of Comparative Zoology, dépendant de la même université, et obtient en échange un poste d’assistant-conservateur. Il obtient son Master of Arts en 1908 et son doctorat de zoologie en 1911. Il prend alors la charge de conservateur de la collection de reptiles et d’amphibiens du Muséum où il remplace Samuel Walton Garman (1843-1927), ce dernier se consacrant aux poissons.
 Sous son action, le nombre de spécimens du muséum triple, soit par des campagnes de prospections, soit des échanges avec d’autres institutions à travers le monde. Il fait paraître en 1914 A Contribution to the Zoögeography of the West Indies, with Especial Reference to Amphibians and Reptiles dans les Memoirs of the Museum of Comparative Zoology à Harvard. En 1917, il réalise, avec Leonhard Hess Stejneger (1851-1943), la liste des espèces de reptiles et d'amphibiens d'Amérique du Nord.
@@ -547,9 +561,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre d'amphibiens Barbourula est nommé en son honneur[1], de même que de nombreux reptiles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre d'amphibiens Barbourula est nommé en son honneur, de même que de nombreux reptiles :
 Amphisbaena barbouri
 Anolis barbouri
 Aristelliger barbouri
